--- a/data/bpd_rcv.xlsx
+++ b/data/bpd_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8752249712913664</v>
+        <v>0.871223292836196</v>
       </c>
       <c r="D2">
-        <v>0.8703726453726454</v>
+        <v>0.01547207426707886</v>
       </c>
       <c r="E2">
-        <v>0.8634593526068693</v>
+        <v>0.8583930869645154</v>
       </c>
       <c r="F2">
-        <v>0.8565891472868217</v>
+        <v>0.0297326616944997</v>
       </c>
       <c r="G2">
-        <v>0.8552068912475004</v>
+        <v>0.8481020877035261</v>
+      </c>
+      <c r="H2">
+        <v>0.02875459972122795</v>
+      </c>
+      <c r="I2">
+        <v>0.8468507751937985</v>
+      </c>
+      <c r="J2">
+        <v>0.04553773728141705</v>
+      </c>
+      <c r="K2">
+        <v>0.8541022469593897</v>
+      </c>
+      <c r="L2">
+        <v>0.04126511602939186</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8875122664161186</v>
+        <v>0.8712149141181399</v>
       </c>
       <c r="D3">
-        <v>0.8791450541450541</v>
+        <v>0.01709915973414721</v>
       </c>
       <c r="E3">
-        <v>0.8712058314801088</v>
+        <v>0.8672044493473064</v>
       </c>
       <c r="F3">
-        <v>0.8798449612403101</v>
+        <v>0.02824324318339969</v>
       </c>
       <c r="G3">
-        <v>0.8734143465107932</v>
+        <v>0.8594246329038059</v>
+      </c>
+      <c r="H3">
+        <v>0.03320947084537992</v>
+      </c>
+      <c r="I3">
+        <v>0.8639413759689922</v>
+      </c>
+      <c r="J3">
+        <v>0.04629902670980388</v>
+      </c>
+      <c r="K3">
+        <v>0.8692846835703978</v>
+      </c>
+      <c r="L3">
+        <v>0.03665365690173061</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.931477189685771</v>
+        <v>0.9378759949727693</v>
       </c>
       <c r="D4">
-        <v>0.9345163345163346</v>
+        <v>0.0139084000407495</v>
       </c>
       <c r="E4">
-        <v>0.9268000988386458</v>
+        <v>0.9315407243978674</v>
       </c>
       <c r="F4">
-        <v>0.9325581395348838</v>
+        <v>0.02030189116296942</v>
       </c>
       <c r="G4">
-        <v>0.9098959134492131</v>
+        <v>0.9364049545499951</v>
+      </c>
+      <c r="H4">
+        <v>0.02186279685885673</v>
+      </c>
+      <c r="I4">
+        <v>0.9370578972868217</v>
+      </c>
+      <c r="J4">
+        <v>0.01873571964885496</v>
+      </c>
+      <c r="K4">
+        <v>0.9219954648526075</v>
+      </c>
+      <c r="L4">
+        <v>0.03418489133270652</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7750600271427081</v>
+        <v>0.786459991621282</v>
       </c>
       <c r="D5">
-        <v>0.7873009373009372</v>
+        <v>0.04693481522715361</v>
       </c>
       <c r="E5">
-        <v>0.7853471707437608</v>
+        <v>0.7716721823864681</v>
       </c>
       <c r="F5">
-        <v>0.7775193798449613</v>
+        <v>0.03468531481547179</v>
       </c>
       <c r="G5">
-        <v>0.7519817463979901</v>
+        <v>0.7845370092897813</v>
+      </c>
+      <c r="H5">
+        <v>0.03631690083254221</v>
+      </c>
+      <c r="I5">
+        <v>0.7698643410852714</v>
+      </c>
+      <c r="J5">
+        <v>0.04489286189579736</v>
+      </c>
+      <c r="K5">
+        <v>0.7527417027417027</v>
+      </c>
+      <c r="L5">
+        <v>0.03334227679197937</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8623300970873785</v>
+        <v>0.892563887725178</v>
       </c>
       <c r="D6">
-        <v>0.8602511602511603</v>
+        <v>0.01504154048635178</v>
       </c>
       <c r="E6">
-        <v>0.866286137879911</v>
+        <v>0.8705414598271741</v>
       </c>
       <c r="F6">
-        <v>0.854263565891473</v>
+        <v>0.03475021575693216</v>
       </c>
       <c r="G6">
-        <v>0.8501358765318157</v>
+        <v>0.8714314254320248</v>
+      </c>
+      <c r="H6">
+        <v>0.0249456233028538</v>
+      </c>
+      <c r="I6">
+        <v>0.8662730135658915</v>
+      </c>
+      <c r="J6">
+        <v>0.04111317402239689</v>
+      </c>
+      <c r="K6">
+        <v>0.8592042877757164</v>
+      </c>
+      <c r="L6">
+        <v>0.04414232537618996</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8784528656435955</v>
+        <v>0.8809342270632593</v>
       </c>
       <c r="D7">
-        <v>0.8582241332241333</v>
+        <v>0.01836629953015232</v>
       </c>
       <c r="E7">
-        <v>0.8754311835927847</v>
+        <v>0.874632285346571</v>
       </c>
       <c r="F7">
-        <v>0.8844961240310079</v>
+        <v>0.02932952453737822</v>
       </c>
       <c r="G7">
-        <v>0.9007024560324052</v>
+        <v>0.8643442213565079</v>
+      </c>
+      <c r="H7">
+        <v>0.02230731644275184</v>
+      </c>
+      <c r="I7">
+        <v>0.8841751453488372</v>
+      </c>
+      <c r="J7">
+        <v>0.02959887266797834</v>
+      </c>
+      <c r="K7">
+        <v>0.8642238713667284</v>
+      </c>
+      <c r="L7">
+        <v>0.03630325227844208</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7834408602150538</v>
+        <v>0.8919061583577713</v>
       </c>
       <c r="D8">
-        <v>0.760965510965511</v>
+        <v>0.01690275075379055</v>
       </c>
       <c r="E8">
-        <v>0.7262317766246603</v>
+        <v>0.8956701599558743</v>
       </c>
       <c r="F8">
-        <v>0.7573643410852713</v>
+        <v>0.03201505154080678</v>
       </c>
       <c r="G8">
-        <v>0.7620622468338204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8894498381877023</v>
-      </c>
-      <c r="D9">
-        <v>0.893993993993994</v>
-      </c>
-      <c r="E9">
-        <v>0.8852755127254757</v>
-      </c>
-      <c r="F9">
-        <v>0.8968992248062015</v>
-      </c>
-      <c r="G9">
-        <v>0.8774701328000821</v>
+        <v>0.8982519228848267</v>
+      </c>
+      <c r="H8">
+        <v>0.02207250507841166</v>
+      </c>
+      <c r="I8">
+        <v>0.9043907461240309</v>
+      </c>
+      <c r="J8">
+        <v>0.02770665612561962</v>
+      </c>
+      <c r="K8">
+        <v>0.8895794681508968</v>
+      </c>
+      <c r="L8">
+        <v>0.03424640787959609</v>
       </c>
     </row>
   </sheetData>
